--- a/Backend/app/temp/facture_sofac.xlsx
+++ b/Backend/app/temp/facture_sofac.xlsx
@@ -844,7 +844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F40"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="0" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="pageBreakPreview" topLeftCell="B2" colorId="64" zoomScale="131" zoomScaleNormal="96" zoomScalePageLayoutView="131" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -950,7 +950,7 @@
       </c>
       <c r="E10" s="50" t="inlineStr">
         <is>
-          <t>05/15/2023</t>
+          <t>06/02/2023</t>
         </is>
       </c>
     </row>
@@ -1035,121 +1035,149 @@
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1" s="36">
-      <c r="B17" s="56" t="n"/>
-      <c r="C17" s="57" t="inlineStr">
+      <c r="B17" s="55" t="inlineStr">
+        <is>
+          <t>LAAZIZ MOHAMED</t>
+        </is>
+      </c>
+      <c r="C17" s="55" t="n"/>
+      <c r="D17" s="55" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E17" s="55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1" s="36">
+      <c r="B18" s="55" t="inlineStr">
+        <is>
+          <t>CHENNAOUI ABDELLATIF</t>
+        </is>
+      </c>
+      <c r="C18" s="55" t="n"/>
+      <c r="D18" s="55" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E18" s="55" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" s="36">
+      <c r="B19" s="56" t="n"/>
+      <c r="C19" s="57" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D17" s="58" t="n"/>
-      <c r="E17" s="59" t="n"/>
-    </row>
-    <row r="18" ht="24.75" customHeight="1" s="36">
-      <c r="B18" s="56" t="n"/>
-      <c r="D18" s="60" t="inlineStr">
+      <c r="D19" s="58" t="n"/>
+      <c r="E19" s="59" t="n"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="36">
+      <c r="B20" s="56" t="n"/>
+      <c r="D20" s="60" t="inlineStr">
         <is>
           <t>TVA 20%</t>
         </is>
       </c>
-      <c r="E18" s="61" t="n"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" s="36">
-      <c r="B19" s="62" t="n"/>
-      <c r="D19" s="60" t="inlineStr">
+      <c r="E20" s="61" t="n"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" s="36">
+      <c r="B21" s="62" t="n"/>
+      <c r="D21" s="60" t="inlineStr">
         <is>
           <t>TOTAL TTC A PAYER</t>
         </is>
       </c>
-      <c r="E19" s="61" t="n"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1" s="36">
-      <c r="B20" s="63" t="n"/>
-      <c r="C20" s="63" t="n"/>
-      <c r="D20" s="64" t="n"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" s="36">
-      <c r="B21" s="63" t="inlineStr">
+      <c r="E21" s="61" t="n"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" s="36">
+      <c r="B22" s="63" t="n"/>
+      <c r="C22" s="63" t="n"/>
+      <c r="D22" s="64" t="n"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" s="36">
+      <c r="B23" s="63" t="inlineStr">
         <is>
           <t xml:space="preserve">Arrêté la présente facture à la somme de : </t>
         </is>
       </c>
-      <c r="C21" s="63" t="n"/>
-      <c r="D21" s="64" t="n"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" s="36">
-      <c r="B22" s="63" t="inlineStr">
+      <c r="C23" s="63" t="n"/>
+      <c r="D23" s="64" t="n"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" s="36">
+      <c r="B24" s="63" t="inlineStr">
         <is>
           <t>Nous vous remercions de votre règlement par virement bancaire sur le compte bancaire suivant :</t>
-        </is>
-      </c>
-      <c r="C22" s="64" t="n"/>
-      <c r="D22" s="64" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="36">
-      <c r="B23" s="65" t="inlineStr">
-        <is>
-          <t>INTITULE : CREDIRECT.MA</t>
-        </is>
-      </c>
-      <c r="C23" s="64" t="n"/>
-      <c r="D23" s="64" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="36">
-      <c r="B24" s="66" t="inlineStr">
-        <is>
-          <t>AGENCE : BP OASIS</t>
         </is>
       </c>
       <c r="C24" s="64" t="n"/>
       <c r="D24" s="64" t="n"/>
     </row>
     <row r="25" ht="15" customHeight="1" s="36">
-      <c r="B25" s="66" t="inlineStr">
-        <is>
-          <t>RIB : 190 780 21211 0230086 000 8 56</t>
+      <c r="B25" s="65" t="inlineStr">
+        <is>
+          <t>INTITULE : CREDIRECT.MA</t>
         </is>
       </c>
       <c r="C25" s="64" t="n"/>
       <c r="D25" s="64" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1" s="36">
-      <c r="B26" s="67" t="n"/>
+      <c r="B26" s="66" t="inlineStr">
+        <is>
+          <t>AGENCE : BP OASIS</t>
+        </is>
+      </c>
+      <c r="C26" s="64" t="n"/>
+      <c r="D26" s="64" t="n"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="36">
-      <c r="B27" s="67" t="n"/>
+      <c r="B27" s="66" t="inlineStr">
+        <is>
+          <t>RIB : 190 780 21211 0230086 000 8 56</t>
+        </is>
+      </c>
+      <c r="C27" s="64" t="n"/>
+      <c r="D27" s="64" t="n"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="36">
       <c r="B28" s="67" t="n"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="36">
       <c r="B29" s="67" t="n"/>
-      <c r="E29" s="68" t="n"/>
     </row>
     <row r="30">
-      <c r="B30" s="66" t="n"/>
-      <c r="C30" s="69" t="n"/>
-      <c r="D30" s="69" t="n"/>
+      <c r="B30" s="67" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="66" t="n"/>
-      <c r="C31" s="69" t="n"/>
-      <c r="D31" s="69" t="n"/>
-      <c r="E31" s="70" t="n"/>
+      <c r="B31" s="67" t="n"/>
+      <c r="E31" s="68" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="66" t="n"/>
       <c r="C32" s="69" t="n"/>
-      <c r="E32" s="70" t="n"/>
-    </row>
-    <row r="33"/>
-    <row r="34"/>
+      <c r="D32" s="69" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="66" t="n"/>
+      <c r="C33" s="69" t="n"/>
+      <c r="D33" s="69" t="n"/>
+      <c r="E33" s="70" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="66" t="n"/>
+      <c r="C34" s="69" t="n"/>
+      <c r="E34" s="70" t="n"/>
+    </row>
     <row r="35"/>
     <row r="36"/>
     <row r="37" ht="15" customHeight="1" s="36"/>
     <row r="38"/>
     <row r="39"/>
-    <row r="40">
-      <c r="A40" s="71" t="n"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42">
+      <c r="A42" s="71" t="n"/>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="36"/>
   </sheetData>
